--- a/similarities/split_global/harmonic_similarity_timestamps_137.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_137.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D', 'G/5', 'D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:00:12.707687', '0:00:25.501882')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:04.340000', '0:00:17.660000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:14.120000', '0:01:31.180000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=4.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=74.12']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:00:12.560000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:08.740000', '0:00:17.660000')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:18.800000', '0:00:21.340000')]</t>
+          <t>('0:00:08.180000', '0:00:13.260000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:04:13', '0:04:20.200000')]</t>
+          <t>('0:00:11.160000', '0:00:18.240000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:21.720000', '0:00:24.960000')]</t>
+          <t>('0:00:22.320000', '0:00:49.780000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=253.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=11.16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=21.72']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=22.32</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
+          <t>isophonics_3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['G:min/A#', 'F:maj/C', 'C:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G']]</t>
+          <t>['A:min', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:01:25.500000', '0:01:30.860000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+          <t>('0:00:17.573877', '0:00:21.207800')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=85.5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=17.573877</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj/5']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:25.920000', '0:00:28.360000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:31.138000', '0:00:34.969000')]</t>
+          <t>('0:00:01.829138', '0:00:15.586961')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=25.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=31.138']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F', 'C']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:00.276984', '0:01:27.246961')]</t>
+          <t>('0:00:10.634761', '0:00:15.986961')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:11.460000', '0:02:13.760000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=60.276984']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=131.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['A:7', 'D:maj', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min'], ['A#:7', 'D#', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:21.100000', '0:01:27.580000'), ('0:00:27.460000', '0:00:36.020000'), ('0:00:13.480000', '0:00:20.960000'), ('0:00:40.440000', '0:00:46.840000'), ('0:00:38.620000', '0:00:44.060000')]</t>
+          <t>('0:00:08.700000', '0:00:32.100000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:24.180000', '0:00:30.020000'), ('0:00:09.240000', '0:00:12.560000'), ('0:00:13.720000', '0:00:20.760000'), ('0:00:36.420000', '0:00:38.760000'), ('0:00:41.060000', '0:00:42.840000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=27.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=40.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=38.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=8.7</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=9.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=36.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=41.06']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'C', 'F']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'D']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:13.976734', '0:00:18.678775')]</t>
+          <t>('0:00:13.210000', '0:00:15.930000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:43.934000', '0:00:49.319000')]</t>
+          <t>('0:01:08.800000', '0:01:16.200000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=13.976734']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=13.21</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=43.934']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=68.8</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db/3', 'Db:min/b3', 'Ab/b5']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03.300000', '0:00:05.850000')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:04.140000', '0:00:13.420000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=3.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=4.14']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:40.095623')]</t>
+          <t>('0:00:02.408196', '0:00:13.878853')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:01:02.530000', '0:01:09.910000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000'), ('0:03:46.620000', '0:03:52.800000'), ('0:00:20.920000', '0:00:26.040000')]</t>
+          <t>('0:00:26.040000', '0:00:59.820000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.680000'), ('0:00:44', '0:01:01.060000'), ('0:00:09.780000', '0:00:14.360000')]</t>
+          <t>('0:00:45.720000', '0:00:59.980000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=26.04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=44.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:00:28.921995', '0:00:33.101587')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:01.080000', '0:02:02')]</t>
+          <t>('0:00:45.720000', '0:00:49.900000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+          <t>('0:01:27.660000', '0:01:36.720000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=121.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
